--- a/demo/src/main/resources/TestCases.xlsx
+++ b/demo/src/main/resources/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2B865-38EE-4835-A27B-3BCDDEBA343B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96B150-87B5-4BD6-82D4-A831AB3F2A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BD17C19-388F-454B-B009-4EDE4120BD8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -85,13 +85,22 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Administrator@test.com</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +112,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,15 +163,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C0D85-425A-4DE0-A9C0-9AF6DDCF0671}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,8 +601,96 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{DF14093A-AA74-4205-B65C-1A216B6C59BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/demo/src/main/resources/TestCases.xlsx
+++ b/demo/src/main/resources/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96B150-87B5-4BD6-82D4-A831AB3F2A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CB0B5-742D-49BD-AD1D-377A929284C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BD17C19-388F-454B-B009-4EDE4120BD8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -94,13 +94,40 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>//*[@id="MP_link"]</t>
+  </si>
+  <si>
+    <t>//*[@id="menu_time_viewEmployeeTimesheet"]</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>//*[@id="employee"]</t>
+  </si>
+  <si>
+    <t>//*[@id="btnView"]</t>
+  </si>
+  <si>
+    <t>Charlie Carter</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>//*[@id="welcome-menu"]/ul/li[3]/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +147,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,11 +208,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -487,15 +530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C0D85-425A-4DE0-A9C0-9AF6DDCF0671}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,6 +728,207 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/demo/src/main/resources/TestCases.xlsx
+++ b/demo/src/main/resources/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CB0B5-742D-49BD-AD1D-377A929284C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968FFC6-77E1-4AE4-A1FA-648AEF9A31A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BD17C19-388F-454B-B009-4EDE4120BD8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -85,42 +85,6 @@
   </si>
   <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Administrator@test.com</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>//*[@id="MP_link"]</t>
-  </si>
-  <si>
-    <t>//*[@id="menu_time_viewEmployeeTimesheet"]</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>//*[@id="employee"]</t>
-  </si>
-  <si>
-    <t>//*[@id="btnView"]</t>
-  </si>
-  <si>
-    <t>Charlie Carter</t>
-  </si>
-  <si>
-    <t>Test 5</t>
-  </si>
-  <si>
-    <t>//*[@id="welcome-menu"]/ul/li[3]/a</t>
   </si>
 </sst>
 </file>
@@ -532,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C0D85-425A-4DE0-A9C0-9AF6DDCF0671}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,276 +609,33 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -931,10 +652,7 @@
       <c r="E24" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{DF14093A-AA74-4205-B65C-1A216B6C59BD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/demo/src/main/resources/TestCases.xlsx
+++ b/demo/src/main/resources/TestCases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968FFC6-77E1-4AE4-A1FA-648AEF9A31A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDF67B2-2927-4968-BC8F-B691EC0953E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BD17C19-388F-454B-B009-4EDE4120BD8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3BD17C19-388F-454B-B009-4EDE4120BD8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +86,42 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>//*[@id="menu_admin_viewAdminModule"]/b</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>//*[@id="forgotPasswordLink"]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="securityAuthentication_userName"]</t>
+  </si>
+  <si>
+    <t>//*[@id="btnSearchValues"]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>txtUsername</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -172,11 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -496,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C0D85-425A-4DE0-A9C0-9AF6DDCF0671}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,18 +563,6 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -547,12 +571,6 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
@@ -604,32 +622,154 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
@@ -638,21 +778,142 @@
       <c r="E20" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08B9A1D-C28D-4018-A715-276C60EE6ABB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>